--- a/Atendimentos.xlsx
+++ b/Atendimentos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sistemas Prefeitura\WEB\Controle Urbano\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sistemas Prefeitura\WEB\Dashboard Atendimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0256F396-63C5-434D-A8C3-7135654C1547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AE7DECF-E210-44FE-8BEA-C26B0D307A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3391CEAA-CB2B-4F47-9AA2-8958C4A4C8DE}"/>
   </bookViews>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8CD3CA-1448-45CF-9FF8-FDFDD3ED738B}">
   <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
